--- a/import/prep/excel_original_receipt/63-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค63 (1-31กค63).xlsx
+++ b/import/prep/excel_original_receipt/63-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค63 (1-31กค63).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel_original_receipt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F144F1F-4F25-614E-A385-17455FE14D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A8620-A3C5-E340-8153-41E6A7BC8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18620" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="3810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="3811">
   <si>
     <t>รวมเงิน</t>
   </si>
@@ -11472,6 +11472,9 @@
   </si>
   <si>
     <t>51 ถ.เจ้าคุณ ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</t>
+  </si>
+  <si>
+    <t>โรงเรียนอนุบาล กระบี่</t>
   </si>
 </sst>
 </file>
@@ -12088,6 +12091,13 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12104,37 +12114,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12158,13 +12144,30 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12204,55 +12207,31 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>ที่ทำการด่านศุลกากร</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>2 ถ.เจ้าฟ้า ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1">
         <row r="6">
           <cell r="C6" t="str">
             <v>12170422743</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>นางวัลลภา สุวรรณพิทักษ์</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>12170364800</v>
           </cell>
-          <cell r="F7" t="str">
-            <v>โรงเรียนอนุบาลกระบี่</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>12170308732</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>โรงเรียนอนุบาล กระบี่</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>12170319604</v>
           </cell>
-          <cell r="F9" t="str">
-            <v>นางเสาวณีย์ เจ้าสวน</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>12170309876</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>นางนรรฐวรรณ สังคะสิน</v>
           </cell>
         </row>
       </sheetData>
@@ -12559,22 +12538,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>3222</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112"/>
@@ -12596,25 +12575,25 @@
       <c r="P2" s="121"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="136" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="140" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -12623,47 +12602,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="133" t="s">
+      <c r="J3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="136" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="M3" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="139" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="111" t="s">
         <v>2414</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="139"/>
       <c r="R4" s="104" t="s">
         <v>3224</v>
       </c>
@@ -54885,21 +54864,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>3223</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
       <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -54920,25 +54899,25 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="136" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="140" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="113" t="s">
@@ -54947,47 +54926,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="133" t="s">
+      <c r="J3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="136" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="M3" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="139" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="111" t="s">
         <v>2414</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="137"/>
+      <c r="G4" s="140"/>
       <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="139"/>
     </row>
     <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
@@ -67068,8 +67047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67099,24 +67078,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="152" t="s">
         <v>3216</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -67149,96 +67128,96 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="154" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="143" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="150" t="s">
+      <c r="P3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="153" t="s">
+      <c r="Q3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="155">
+      <c r="R3" s="150">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="152" t="s">
+      <c r="S3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="149" t="s">
+      <c r="U3" s="142" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="142"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
       <c r="O4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="149"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="142"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -67671,13 +67650,11 @@
       <c r="D12" s="114" t="s">
         <v>1587</v>
       </c>
-      <c r="E12" s="157" t="str">
-        <f>'[1]13-07-63'!$F$6</f>
-        <v>ที่ทำการด่านศุลกากร</v>
-      </c>
-      <c r="F12" s="158" t="str">
-        <f>'[1]13-07-63'!$G$6</f>
-        <v>2 ถ.เจ้าฟ้า ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</v>
+      <c r="E12" s="133" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F12" s="134" t="s">
+        <v>1589</v>
       </c>
       <c r="G12" s="108" t="s">
         <v>3146</v>
@@ -67735,13 +67712,11 @@
       <c r="D13" s="114" t="s">
         <v>1587</v>
       </c>
-      <c r="E13" s="157" t="str">
-        <f>'[1]13-07-63'!$F$6</f>
-        <v>ที่ทำการด่านศุลกากร</v>
-      </c>
-      <c r="F13" s="158" t="str">
-        <f>'[1]13-07-63'!$G$6</f>
-        <v>2 ถ.เจ้าฟ้า ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</v>
+      <c r="E13" s="133" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F13" s="134" t="s">
+        <v>1589</v>
       </c>
       <c r="G13" s="108" t="s">
         <v>3163</v>
@@ -67797,13 +67772,11 @@
       <c r="D14" s="114" t="s">
         <v>1587</v>
       </c>
-      <c r="E14" s="157" t="str">
-        <f>'[1]13-07-63'!$F$6</f>
-        <v>ที่ทำการด่านศุลกากร</v>
-      </c>
-      <c r="F14" s="158" t="str">
-        <f>'[1]13-07-63'!$G$6</f>
-        <v>2 ถ.เจ้าฟ้า ต.ปากน้ำ อ.เมืองกระบี่ จ.กระบี่</v>
+      <c r="E14" s="133" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F14" s="134" t="s">
+        <v>1589</v>
       </c>
       <c r="G14" s="108" t="s">
         <v>3233</v>
@@ -67873,9 +67846,8 @@
         <f>'[1]16-07-63'!C6</f>
         <v>12170422743</v>
       </c>
-      <c r="E15" s="127" t="str">
-        <f>'[1]16-07-63'!F6</f>
-        <v>นางวัลลภา สุวรรณพิทักษ์</v>
+      <c r="E15" s="127" t="s">
+        <v>1791</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>1792</v>
@@ -67935,9 +67907,8 @@
         <f>'[1]16-07-63'!C7</f>
         <v>12170364800</v>
       </c>
-      <c r="E16" s="127" t="str">
-        <f>'[1]16-07-63'!F7</f>
-        <v>โรงเรียนอนุบาลกระบี่</v>
+      <c r="E16" s="127" t="s">
+        <v>2223</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>2211</v>
@@ -67998,9 +67969,8 @@
         <f>'[1]16-07-63'!C8</f>
         <v>12170308732</v>
       </c>
-      <c r="E17" s="127" t="str">
-        <f>'[1]16-07-63'!F8</f>
-        <v>โรงเรียนอนุบาล กระบี่</v>
+      <c r="E17" s="127" t="s">
+        <v>3810</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>2211</v>
@@ -68061,9 +68031,8 @@
         <f>'[1]16-07-63'!C9</f>
         <v>12170319604</v>
       </c>
-      <c r="E18" s="127" t="str">
-        <f>'[1]16-07-63'!F9</f>
-        <v>นางเสาวณีย์ เจ้าสวน</v>
+      <c r="E18" s="127" t="s">
+        <v>783</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>784</v>
@@ -68122,9 +68091,8 @@
         <f>'[1]16-07-63'!C10</f>
         <v>12170309876</v>
       </c>
-      <c r="E19" s="127" t="str">
-        <f>'[1]16-07-63'!F10</f>
-        <v>นางนรรฐวรรณ สังคะสิน</v>
+      <c r="E19" s="127" t="s">
+        <v>344</v>
       </c>
       <c r="F19" s="64" t="s">
         <v>345</v>
@@ -68550,10 +68518,10 @@
       <c r="D26" s="129" t="s">
         <v>1785</v>
       </c>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="135" t="s">
         <v>1786</v>
       </c>
-      <c r="F26" s="159" t="s">
+      <c r="F26" s="135" t="s">
         <v>1787</v>
       </c>
       <c r="G26" s="99" t="s">
@@ -68609,10 +68577,10 @@
       <c r="D27" s="129" t="s">
         <v>1785</v>
       </c>
-      <c r="E27" s="159" t="s">
+      <c r="E27" s="135" t="s">
         <v>1786</v>
       </c>
-      <c r="F27" s="159" t="s">
+      <c r="F27" s="135" t="s">
         <v>3809</v>
       </c>
       <c r="G27" s="99" t="s">
@@ -82514,15 +82482,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -82534,6 +82493,15 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -82545,8 +82513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -82575,24 +82543,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="152" t="s">
         <v>3217</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="95"/>
       <c r="S1" s="95"/>
@@ -82625,96 +82593,96 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="154" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="143" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="150" t="s">
+      <c r="P3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="153" t="s">
+      <c r="Q3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="155">
+      <c r="R3" s="150">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="152" t="s">
+      <c r="S3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="149" t="s">
+      <c r="U3" s="142" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="142"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="142"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
       <c r="O4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="149"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="142"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -88004,15 +87972,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -88024,6 +87983,15 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
